--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -115,6 +115,72 @@
   </si>
   <si>
     <t>Type 2-diabetes</t>
+  </si>
+  <si>
+    <t>DF00</t>
+  </si>
+  <si>
+    <t>Demens ved Alzheimers sygdom</t>
+  </si>
+  <si>
+    <t>DF10</t>
+  </si>
+  <si>
+    <t>Psykiske lidelser og adfærdsmæssige forstyrrelser forårsaget af brug af alkohol</t>
+  </si>
+  <si>
+    <t>DF20</t>
+  </si>
+  <si>
+    <t>Skizofreni</t>
+  </si>
+  <si>
+    <t>DF30</t>
+  </si>
+  <si>
+    <t>Manisk enkeltepisode</t>
+  </si>
+  <si>
+    <t>DF40</t>
+  </si>
+  <si>
+    <t>Fobiske angsttilstande</t>
+  </si>
+  <si>
+    <t>DF50</t>
+  </si>
+  <si>
+    <t>Spiseforstyrrelser</t>
+  </si>
+  <si>
+    <t>DF60</t>
+  </si>
+  <si>
+    <t>Specifikke forstyrrelser af personlighedsstrukturen</t>
+  </si>
+  <si>
+    <t>DF70</t>
+  </si>
+  <si>
+    <t>Mental retardering af lettere grad</t>
+  </si>
+  <si>
+    <t>DF80</t>
+  </si>
+  <si>
+    <t>Specifikke udviklingsforstyrrelser af tale og sprog</t>
+  </si>
+  <si>
+    <t>DF90</t>
+  </si>
+  <si>
+    <t>Hyperkinetiske forstyrrelser</t>
+  </si>
+  <si>
+    <t>DF99</t>
+  </si>
+  <si>
+    <t>Ikke nærmere specificerede psykiske lidelser</t>
   </si>
   <si>
     <t>DJ44</t>
@@ -447,7 +513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,18 +589,106 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -567,13 +721,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -586,10 +740,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -622,13 +776,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -641,10 +795,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -677,13 +831,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -696,10 +850,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -732,13 +886,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -751,10 +905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -787,13 +941,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -806,10 +960,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -842,13 +996,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -861,10 +1015,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>ALAL03</t>
+  </si>
+  <si>
+    <t>Psykiske lidelser og adfærdsmæssige forstyrrelser</t>
   </si>
   <si>
     <t>DE10</t>
@@ -516,7 +522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -683,15 +689,23 @@
         <v>64</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -724,29 +738,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -779,29 +793,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -834,29 +848,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -889,29 +903,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -944,29 +958,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -999,29 +1013,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-conditions.xlsx
+++ b/fhir/ValueSet-ehealth-conditions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Ikke nærmere specificerede psykiske lidelser</t>
+  </si>
+  <si>
+    <t>DG20</t>
+  </si>
+  <si>
+    <t>Parkinsons sygdom</t>
   </si>
   <si>
     <t>DJ44</t>
@@ -522,7 +528,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,15 +703,23 @@
         <v>66</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -738,29 +752,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -793,29 +807,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -848,29 +862,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -903,29 +917,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -958,29 +972,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -1013,29 +1027,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
